--- a/assingment2_graphs.xlsx
+++ b/assingment2_graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="No kvm cpu" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     </textPr>
   </connection>
   <connection id="5" name="native-cpu" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/jacek/Dysk Google/Studia/S3MGR/Cloud Computing/UB/assignment2/native-cpu.csv" thousands=" " tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/jacek/Dysk Google/Studia/S3MGR/Cloud Computing/UB/assignment2/native-cpu.csv" thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -94,7 +94,7 @@
     </textPr>
   </connection>
   <connection id="6" name="native-disk-random" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/jacek/Dysk Google/Studia/S3MGR/Cloud Computing/UB/assignment2/native-disk-random.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/jacek/Dysk Google/Studia/S3MGR/Cloud Computing/UB/assignment2/native-disk-random.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -102,7 +102,7 @@
     </textPr>
   </connection>
   <connection id="7" name="native-fork" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/jacek/Dysk Google/Studia/S3MGR/Cloud Computing/UB/assignment2/native-fork.csv" thousands=" " tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/jacek/Dysk Google/Studia/S3MGR/Cloud Computing/UB/assignment2/native-fork.csv" thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -110,7 +110,7 @@
     </textPr>
   </connection>
   <connection id="8" name="native-mem" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/jacek/Dysk Google/Studia/S3MGR/Cloud Computing/UB/assignment2/native-mem.csv" thousands=" " tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/jacek/Dysk Google/Studia/S3MGR/Cloud Computing/UB/assignment2/native-mem.csv" thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -260,7 +260,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -650,11 +649,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130297936"/>
-        <c:axId val="2131575664"/>
+        <c:axId val="2126099712"/>
+        <c:axId val="2126115856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130297936"/>
+        <c:axId val="2126099712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +699,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -767,12 +765,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131575664"/>
+        <c:crossAx val="2126115856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131575664"/>
+        <c:axId val="2126115856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,7 +816,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -884,7 +881,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130297936"/>
+        <c:crossAx val="2126099712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1363,11 +1360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2133344672"/>
-        <c:axId val="2133350640"/>
+        <c:axId val="2125733888"/>
+        <c:axId val="2125727920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2133344672"/>
+        <c:axId val="2125733888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,12 +1476,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133350640"/>
+        <c:crossAx val="2125727920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2133350640"/>
+        <c:axId val="2125727920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,7 +1601,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133344672"/>
+        <c:crossAx val="2125733888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1688,7 +1685,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>No KVM memory benchmark</a:t>
+              <a:t>KVM memory benchmark</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2083,11 +2080,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2133396752"/>
-        <c:axId val="2133402720"/>
+        <c:axId val="2124579216"/>
+        <c:axId val="2124573248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2133396752"/>
+        <c:axId val="2124579216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2199,12 +2196,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133402720"/>
+        <c:crossAx val="2124573248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2133402720"/>
+        <c:axId val="2124573248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2324,7 +2321,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133396752"/>
+        <c:crossAx val="2124579216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2803,11 +2800,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2056682624"/>
-        <c:axId val="-2056495984"/>
+        <c:axId val="2125795536"/>
+        <c:axId val="2125801632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2056682624"/>
+        <c:axId val="2125795536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2919,12 +2916,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056495984"/>
+        <c:crossAx val="2125801632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2056495984"/>
+        <c:axId val="2125801632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3044,7 +3041,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056682624"/>
+        <c:crossAx val="2125795536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3133,7 +3130,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3523,11 +3519,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130344608"/>
-        <c:axId val="2130350576"/>
+        <c:axId val="2126260304"/>
+        <c:axId val="2126266272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130344608"/>
+        <c:axId val="2126260304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3573,7 +3569,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3639,12 +3634,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130350576"/>
+        <c:crossAx val="2126266272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130350576"/>
+        <c:axId val="2126266272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3690,7 +3685,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3756,7 +3750,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130344608"/>
+        <c:crossAx val="2126260304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3853,7 +3847,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4243,11 +4236,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2022593024"/>
-        <c:axId val="-2020371856"/>
+        <c:axId val="2126313360"/>
+        <c:axId val="2126319328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2022593024"/>
+        <c:axId val="2126313360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4293,7 +4286,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4359,12 +4351,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020371856"/>
+        <c:crossAx val="2126319328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2020371856"/>
+        <c:axId val="2126319328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4410,7 +4402,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4477,7 +4468,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2022593024"/>
+        <c:crossAx val="2126313360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4961,11 +4952,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131713072"/>
-        <c:axId val="2131719056"/>
+        <c:axId val="2126363440"/>
+        <c:axId val="2126369424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131713072"/>
+        <c:axId val="2126363440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5078,12 +5069,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131719056"/>
+        <c:crossAx val="2126369424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131719056"/>
+        <c:axId val="2126369424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5140,7 +5131,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131713072"/>
+        <c:crossAx val="2126363440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5624,11 +5615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131730800"/>
-        <c:axId val="2131736784"/>
+        <c:axId val="2126413536"/>
+        <c:axId val="2126419520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131730800"/>
+        <c:axId val="2126413536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5741,12 +5732,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131736784"/>
+        <c:crossAx val="2126419520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131736784"/>
+        <c:axId val="2126419520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5803,7 +5794,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131730800"/>
+        <c:crossAx val="2126413536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5897,7 +5888,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6287,11 +6277,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2047329968"/>
-        <c:axId val="-2047260192"/>
+        <c:axId val="2126464736"/>
+        <c:axId val="2126470720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2047329968"/>
+        <c:axId val="2126464736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6337,7 +6327,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6404,12 +6393,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2047260192"/>
+        <c:crossAx val="2126470720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2047260192"/>
+        <c:axId val="2126470720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6466,7 +6455,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2047329968"/>
+        <c:crossAx val="2126464736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6555,7 +6544,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6945,11 +6933,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131942704"/>
-        <c:axId val="2131936736"/>
+        <c:axId val="2125887248"/>
+        <c:axId val="2125881280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131942704"/>
+        <c:axId val="2125887248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6995,7 +6983,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7061,12 +7048,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131936736"/>
+        <c:crossAx val="2125881280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131936736"/>
+        <c:axId val="2125881280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7112,7 +7099,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7179,7 +7165,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131942704"/>
+        <c:crossAx val="2125887248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7268,7 +7254,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7658,11 +7643,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131978736"/>
-        <c:axId val="2133254784"/>
+        <c:axId val="2125838320"/>
+        <c:axId val="2125832352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131978736"/>
+        <c:axId val="2125838320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7708,7 +7693,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7774,12 +7758,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133254784"/>
+        <c:crossAx val="2125832352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2133254784"/>
+        <c:axId val="2125832352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7825,7 +7809,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7892,7 +7875,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131978736"/>
+        <c:crossAx val="2125838320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8371,11 +8354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2031704672"/>
-        <c:axId val="-2031701728"/>
+        <c:axId val="2125786464"/>
+        <c:axId val="2125780496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2031704672"/>
+        <c:axId val="2125786464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8487,12 +8470,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2031701728"/>
+        <c:crossAx val="2125780496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2031701728"/>
+        <c:axId val="2125780496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8605,7 +8588,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2031704672"/>
+        <c:crossAx val="2125786464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17319,8 +17302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E3"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17940,7 +17923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>

--- a/assingment2_graphs.xlsx
+++ b/assingment2_graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="No kvm cpu" sheetId="1" r:id="rId1"/>
@@ -649,11 +649,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126099712"/>
-        <c:axId val="2126115856"/>
+        <c:axId val="-2098082176"/>
+        <c:axId val="-2097898720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126099712"/>
+        <c:axId val="-2098082176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,12 +765,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126115856"/>
+        <c:crossAx val="-2097898720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126115856"/>
+        <c:axId val="-2097898720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,7 +881,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126099712"/>
+        <c:crossAx val="-2098082176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -970,7 +970,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1360,11 +1359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125733888"/>
-        <c:axId val="2125727920"/>
+        <c:axId val="-2027107520"/>
+        <c:axId val="-2027101552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125733888"/>
+        <c:axId val="-2027107520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1409,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1476,12 +1474,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125727920"/>
+        <c:crossAx val="-2027101552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125727920"/>
+        <c:axId val="-2027101552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,7 +1533,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1601,7 +1598,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125733888"/>
+        <c:crossAx val="-2027107520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1690,7 +1687,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2080,11 +2076,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2124579216"/>
-        <c:axId val="2124573248"/>
+        <c:axId val="-2027087024"/>
+        <c:axId val="-2027081056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2124579216"/>
+        <c:axId val="-2027087024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2130,7 +2126,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2196,12 +2191,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124573248"/>
+        <c:crossAx val="-2027081056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2124573248"/>
+        <c:axId val="-2027081056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,7 +2250,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2321,7 +2315,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124579216"/>
+        <c:crossAx val="-2027087024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2800,11 +2794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125795536"/>
-        <c:axId val="2125801632"/>
+        <c:axId val="-2027046368"/>
+        <c:axId val="-2027040400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125795536"/>
+        <c:axId val="-2027046368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2880,6 +2874,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2916,12 +2911,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125801632"/>
+        <c:crossAx val="-2027040400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125801632"/>
+        <c:axId val="-2027040400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3041,7 +3036,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125795536"/>
+        <c:crossAx val="-2027046368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3519,11 +3514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126260304"/>
-        <c:axId val="2126266272"/>
+        <c:axId val="-2095864768"/>
+        <c:axId val="2097558896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126260304"/>
+        <c:axId val="-2095864768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3598,6 +3593,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3634,12 +3630,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126266272"/>
+        <c:crossAx val="2097558896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126266272"/>
+        <c:axId val="2097558896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3714,6 +3710,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3750,7 +3747,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126260304"/>
+        <c:crossAx val="-2095864768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4236,11 +4233,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126313360"/>
-        <c:axId val="2126319328"/>
+        <c:axId val="-2026502080"/>
+        <c:axId val="-2104199232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126313360"/>
+        <c:axId val="-2026502080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4315,6 +4312,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4351,12 +4349,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126319328"/>
+        <c:crossAx val="-2104199232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126319328"/>
+        <c:axId val="-2104199232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4468,7 +4466,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126313360"/>
+        <c:crossAx val="-2026502080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4562,7 +4560,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4952,11 +4949,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126363440"/>
-        <c:axId val="2126369424"/>
+        <c:axId val="-2024870416"/>
+        <c:axId val="-2024864448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126363440"/>
+        <c:axId val="-2024870416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5002,7 +4999,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5069,12 +5065,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126369424"/>
+        <c:crossAx val="-2024864448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126369424"/>
+        <c:axId val="-2024864448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5094,6 +5090,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>IOPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5131,7 +5182,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126363440"/>
+        <c:crossAx val="-2024870416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5225,7 +5276,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5615,11 +5665,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126413536"/>
-        <c:axId val="2126419520"/>
+        <c:axId val="-2024973072"/>
+        <c:axId val="-2022534976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126413536"/>
+        <c:axId val="-2024973072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5665,7 +5715,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5732,12 +5781,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126419520"/>
+        <c:crossAx val="-2022534976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126419520"/>
+        <c:axId val="-2022534976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5757,6 +5806,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>IOPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5794,7 +5898,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126413536"/>
+        <c:crossAx val="-2024973072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6277,11 +6381,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126464736"/>
-        <c:axId val="2126470720"/>
+        <c:axId val="-2024920000"/>
+        <c:axId val="-2024914032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126464736"/>
+        <c:axId val="-2024920000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6393,12 +6497,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126470720"/>
+        <c:crossAx val="-2024914032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126470720"/>
+        <c:axId val="-2024914032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6418,6 +6522,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>IOPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6455,7 +6614,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126464736"/>
+        <c:crossAx val="-2024920000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6933,11 +7092,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125887248"/>
-        <c:axId val="2125881280"/>
+        <c:axId val="-2098165248"/>
+        <c:axId val="-2098137824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125887248"/>
+        <c:axId val="-2098165248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7012,6 +7171,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7048,12 +7208,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125881280"/>
+        <c:crossAx val="-2098137824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125881280"/>
+        <c:axId val="-2098137824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7165,7 +7325,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125887248"/>
+        <c:crossAx val="-2098165248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7643,11 +7803,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125838320"/>
-        <c:axId val="2125832352"/>
+        <c:axId val="-2089690048"/>
+        <c:axId val="-2089682976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125838320"/>
+        <c:axId val="-2089690048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7758,12 +7918,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125832352"/>
+        <c:crossAx val="-2089682976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125832352"/>
+        <c:axId val="-2089682976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7875,7 +8035,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125838320"/>
+        <c:crossAx val="-2089690048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7964,7 +8124,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8354,11 +8513,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125786464"/>
-        <c:axId val="2125780496"/>
+        <c:axId val="-2025746352"/>
+        <c:axId val="-2024900672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125786464"/>
+        <c:axId val="-2025746352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8404,7 +8563,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8434,6 +8592,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8470,12 +8629,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125780496"/>
+        <c:crossAx val="-2024900672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125780496"/>
+        <c:axId val="-2024900672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8521,7 +8680,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8588,7 +8746,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125786464"/>
+        <c:crossAx val="-2025746352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17302,7 +17460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -17923,8 +18081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19787,7 +19945,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20409,7 +20567,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21021,6 +21179,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -21030,7 +21189,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assingment2_graphs.xlsx
+++ b/assingment2_graphs.xlsx
@@ -16252,7 +16252,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16352,7 +16352,7 @@
         <v>1545082968</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
+        <f>(A7-$A$2)/60</f>
         <v>6.2166666666666668</v>
       </c>
       <c r="C7" s="1">
